--- a/biology/Histoire de la zoologie et de la botanique/James_Henry_Fleming/James_Henry_Fleming.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Henry_Fleming/James_Henry_Fleming.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Henry Fleming est un ornithologue canadien, né le 5 juillet 1872 à Toronto et mort le 27 juin 1940 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, James Fleming, est originaire d’Aberdeen en Écosse. Il s’installe à Montréal en 1834 à vingt-quatre ans avant de fonder à Toronto une entreprise de production de semences et fait paraître quelques publications dans des revues d’horticulture. Après la mort de sa femme, James Fleming épouse en secondes noces Mary Elizabeth Wade, dont la famille d’origine anglaise vit près de Port Hope en Ontario.
 Le jeune James fait ses études à Toronto et montre dès ses douze ans, un grand intérêt pour les oiseaux. Il commence à les collectionner deux ans plus tard. Sa collection est constituée d’œufs et d’oiseaux de sa région mais compte également quelques espèces exotiques notamment d'oiseaux-mouches. Après avoir hérité de son père, il se consacre à l’entreprise familiale et à l’ornithologie.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lester Lynne Snyder (1941). In Memoriam : James Henry Fleming, The Auk, 58 (1) : 1-12
 Barbara Mearns &amp; Richard Mearns (1998). The Bird Collectors. Academic Press (Londres) : xvii + 472 p.</t>
